--- a/Jumia.Workprogram.Excel.xlsx
+++ b/Jumia.Workprogram.Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88beb887e885a0a7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88beb887e885a0a7/Documents/sql-training/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{D365E1AE-81D0-4BA3-A8B2-5EEFEBFFC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F963392-33DD-422B-BD68-E2DA5BFE5AB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" activeTab="1" xr2:uid="{5BD70238-DBE5-4A92-B66E-D1B3AEBE036A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" activeTab="4" xr2:uid="{5BD70238-DBE5-4A92-B66E-D1B3AEBE036A}"/>
   </bookViews>
   <sheets>
     <sheet name="CATEGORIES" sheetId="4" r:id="rId1"/>
@@ -1709,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1D081F-68BA-49E6-B3C0-BF106752C9EE}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D104"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E9C4C-FBB8-4533-B2D4-34EE7A953888}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
